--- a/6.x/6.2.xlsx
+++ b/6.x/6.2.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marink\Documents\FFXIV Excel\6.x\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marink\Documents\FFXIV-EXCEL\6.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C25CA9-27BA-4AC7-BC45-078316750069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDAA49D-7595-43A4-A26C-C451698210DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="0" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="6.2 MSQ" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,9 +48,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Buried Memory (6.2)</t>
+  </si>
+  <si>
+    <t>Main Story Quest</t>
   </si>
 </sst>
 </file>
@@ -66,6 +69,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -447,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D05A15-73C2-4BEE-9561-8EC696D083BD}">
   <dimension ref="B1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,6 +484,11 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -608,9 +617,10 @@
       <c r="E24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:E24"/>
     <mergeCell ref="F1:J2"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -620,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
